--- a/biology/Botanique/Orange_Ichiki/Orange_Ichiki.xlsx
+++ b/biology/Botanique/Orange_Ichiki/Orange_Ichiki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orange Ichiki ou Kobayashi mikan, l’orange de Mié, est un agrume chimère naturelle de mandarine satsuma (Citrus unshiu Marc.) greffée sur Natsudaidai (C. natsudaidai Hayata) cultivée à Mihama, district de Minamimuro, préfecture de Mie pour ses qualités alimentaires. Elle bénéficie du Certificat Fruit traditionnel du beau pays de Mie (2008). 
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">市木オレンジ（スプーンオレンジ）いちぎおれんじ (Ichiki orenji (supūn'orenji) = ichigi orenji) Orange Ichiki (ou Ichigi) qui signifie Orange à la Cuillère car elle se mange coupée en deux à la cuillère. 
-小林みかん (Kobayashi mikan)[2] doit son nom à Samura et Nakahara (1928) car il provient d'une une greffe réalisée par Kakichi Kobayashi de Fukuoka en 1903 qui a été cassée en 1922 et de laquelle (près du point de greffe) à repoussé une chimère périclinale où cohabitent un mélange des gènes de Natsudaidai et de mandarine satsuma[3]. Cette chimère comestible a été mise en culture à Mihama, district de Minamimuro, préfecture de Mie[4]. 
+小林みかん (Kobayashi mikan) doit son nom à Samura et Nakahara (1928) car il provient d'une une greffe réalisée par Kakichi Kobayashi de Fukuoka en 1903 qui a été cassée en 1922 et de laquelle (près du point de greffe) à repoussé une chimère périclinale où cohabitent un mélange des gènes de Natsudaidai et de mandarine satsuma. Cette chimère comestible a été mise en culture à Mihama, district de Minamimuro, préfecture de Mie. 
 </t>
         </is>
       </c>
@@ -543,12 +557,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit de 10 cm de diamètre[5], légèrement aplati ressemble à une mandarine d'été d'une couleur oranger saturé, il est récolté de fin janvier à fin février (commercialisé jusqu'à début mars) mais ne se laisse pas peler à la main[6] c'est pourquoi sa diffusion est limitée. Il est consommé comme les grapefruits américains, coupé en deux à l'équateur en extrayant la pulpe à la cuillère[7]. Les amateurs apprécient sa jutosité (jus peu acide et sucré) et sa belle couleur.
-Chimère périclinale
-Kensuke Yamashita (1983) démontre la nature chimérique de la plante où coexiste des partie mandarine (par exemple l'albédo ressemble distinctement à celui du Natsudaidai alors que la pulpe est exactement celle de la mandarine satsuma)[8]. 
-L'orange Ichiki est avec la mandarine Kinkoji la seule chimère d'agrumes cultivée et maintenue au Japon[9], son intérêt botanique compense sa rareté: la production est de l'ordre d'une dizaine de t. (2022)[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit de 10 cm de diamètre, légèrement aplati ressemble à une mandarine d'été d'une couleur oranger saturé, il est récolté de fin janvier à fin février (commercialisé jusqu'à début mars) mais ne se laisse pas peler à la main c'est pourquoi sa diffusion est limitée. Il est consommé comme les grapefruits américains, coupé en deux à l'équateur en extrayant la pulpe à la cuillère. Les amateurs apprécient sa jutosité (jus peu acide et sucré) et sa belle couleur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange_Ichiki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orange_Ichiki</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chimère périclinale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kensuke Yamashita (1983) démontre la nature chimérique de la plante où coexiste des partie mandarine (par exemple l'albédo ressemble distinctement à celui du Natsudaidai alors que la pulpe est exactement celle de la mandarine satsuma). 
+L'orange Ichiki est avec la mandarine Kinkoji la seule chimère d'agrumes cultivée et maintenue au Japon, son intérêt botanique compense sa rareté: la production est de l'ordre d'une dizaine de t. (2022). 
 </t>
         </is>
       </c>
